--- a/Tables/Telework_stapro.xlsx
+++ b/Tables/Telework_stapro.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,2841 +360,2382 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>country_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>year</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>country_name</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>% TW</t>
+          <t>(% TW)
+ Employee</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>(% TW) Self-employed</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>(% TW) Employee</t>
+          <t>(% TW)
+ Self-employed</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AT</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
+          <t>European Union (27)</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>2018</v>
       </c>
       <c r="D2">
-        <v>0.2130259048318942</v>
+        <v>0.1031203462181998</v>
       </c>
       <c r="E2">
-        <v>0.6901861689990582</v>
-      </c>
-      <c r="F2">
-        <v>0.1579372363678756</v>
+        <v>0.3406005123764674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AT</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
+          <t>European Union (27)</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>2019</v>
       </c>
       <c r="D3">
-        <v>0.2174595895907371</v>
+        <v>0.1110118989638097</v>
       </c>
       <c r="E3">
-        <v>0.6757947768364053</v>
-      </c>
-      <c r="F3">
-        <v>0.1630865973985099</v>
+        <v>0.3546302172554058</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AT</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
+          <t>European Union (27)</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>2020</v>
       </c>
       <c r="D4">
-        <v>0.2821797066580299</v>
+        <v>0.1823388882702972</v>
       </c>
       <c r="E4">
-        <v>0.6496890789547687</v>
-      </c>
-      <c r="F4">
-        <v>0.2475764269895324</v>
+        <v>0.3616525029225551</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AT</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
+          <t>European Union (27)</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>2021</v>
       </c>
       <c r="D5">
-        <v>0.2741721225922763</v>
+        <v>0.2193472741227216</v>
       </c>
       <c r="E5">
-        <v>0.5655998940381659</v>
-      </c>
-      <c r="F5">
-        <v>0.2526191767723666</v>
+        <v>0.3826519372791757</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BE</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>2018</v>
       </c>
       <c r="D6">
-        <v>0.2324794041304593</v>
+        <v>0.1579372363678756</v>
       </c>
       <c r="E6">
-        <v>0.6019718940368509</v>
-      </c>
-      <c r="F6">
-        <v>0.1675985743346316</v>
+        <v>0.6901861689990582</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BE</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>2019</v>
       </c>
       <c r="D7">
-        <v>0.2517167162037511</v>
+        <v>0.1630865973985099</v>
       </c>
       <c r="E7">
-        <v>0.6078654680098237</v>
-      </c>
-      <c r="F7">
-        <v>0.1886315032983733</v>
+        <v>0.6757947768364053</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BE</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>2020</v>
       </c>
       <c r="D8">
-        <v>0.3472542981780857</v>
+        <v>0.2475764269895324</v>
       </c>
       <c r="E8">
-        <v>0.6277287722607516</v>
-      </c>
-      <c r="F8">
-        <v>0.2896265748322661</v>
+        <v>0.6496890789547687</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BE</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>2021</v>
       </c>
       <c r="D9">
-        <v>0.401429895405799</v>
+        <v>0.2526191767723666</v>
       </c>
       <c r="E9">
-        <v>0.6226016055302072</v>
-      </c>
-      <c r="F9">
-        <v>0.3616446249843524</v>
+        <v>0.5655998940381659</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BG</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>2018</v>
       </c>
       <c r="D10">
-        <v>0.009255393180236604</v>
+        <v>0.1675985743346316</v>
       </c>
       <c r="E10">
-        <v>0.03578241065629512</v>
-      </c>
-      <c r="F10">
-        <v>0.005808725932477496</v>
+        <v>0.6019718940368509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BG</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>2019</v>
       </c>
       <c r="D11">
-        <v>0.01043713995255846</v>
+        <v>0.1886315032983733</v>
       </c>
       <c r="E11">
-        <v>0.04080101055267448</v>
-      </c>
-      <c r="F11">
-        <v>0.007438024384112237</v>
+        <v>0.6078654680098237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BG</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>2020</v>
       </c>
       <c r="D12">
-        <v>0.02713061776642116</v>
+        <v>0.2896265748322661</v>
       </c>
       <c r="E12">
-        <v>0.06188682335455839</v>
-      </c>
-      <c r="F12">
-        <v>0.02678900020328849</v>
+        <v>0.6277287722607516</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BG</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>2021</v>
       </c>
       <c r="D13">
-        <v>0.05790117791035643</v>
+        <v>0.3616446249843524</v>
       </c>
       <c r="E13">
-        <v>0.1419713427727943</v>
-      </c>
-      <c r="F13">
-        <v>0.0555240433837645</v>
+        <v>0.6226016055302072</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CY</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Cyprus</t>
-        </is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>2018</v>
       </c>
       <c r="D14">
-        <v>0.02065620231087857</v>
+        <v>0.005808725932477496</v>
       </c>
       <c r="E14">
-        <v>0.06230670881313322</v>
-      </c>
-      <c r="F14">
-        <v>0.01602778487614279</v>
+        <v>0.03578241065629512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CY</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Cyprus</t>
-        </is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>2019</v>
       </c>
       <c r="D15">
-        <v>0.02695507487520799</v>
+        <v>0.007438024384112237</v>
       </c>
       <c r="E15">
-        <v>0.0672872095177324</v>
-      </c>
-      <c r="F15">
-        <v>0.0200361845801522</v>
+        <v>0.04080101055267448</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CY</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Cyprus</t>
-        </is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>2020</v>
       </c>
       <c r="D16">
-        <v>0.07701489144026373</v>
+        <v>0.02678900020328849</v>
       </c>
       <c r="E16">
-        <v>0.08889023139515743</v>
-      </c>
-      <c r="F16">
-        <v>0.07141301558595595</v>
+        <v>0.06188682335455839</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CY</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Cyprus</t>
-        </is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>2021</v>
       </c>
       <c r="D17">
-        <v>0.1247502141021981</v>
+        <v>0.0555240433837645</v>
       </c>
       <c r="E17">
-        <v>0.1412514530788913</v>
-      </c>
-      <c r="F17">
-        <v>0.124633753550572</v>
+        <v>0.1419713427727943</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CZ</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Czechia</t>
-        </is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>2018</v>
       </c>
       <c r="D18">
-        <v>0.09224109224109224</v>
+        <v>0.01602778487614279</v>
       </c>
       <c r="E18">
-        <v>0.3604096548079437</v>
-      </c>
-      <c r="F18">
-        <v>0.04260638636071383</v>
+        <v>0.06230670881313322</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CZ</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Czechia</t>
-        </is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>2019</v>
       </c>
       <c r="D19">
-        <v>0.0978572247049387</v>
+        <v>0.0200361845801522</v>
       </c>
       <c r="E19">
-        <v>0.3790119236158487</v>
-      </c>
-      <c r="F19">
-        <v>0.0466520304427593</v>
+        <v>0.0672872095177324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CZ</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Czechia</t>
-        </is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>2020</v>
       </c>
       <c r="D20">
-        <v>0.1234128012438456</v>
+        <v>0.07141301558595595</v>
       </c>
       <c r="E20">
-        <v>0.3978999384703227</v>
-      </c>
-      <c r="F20">
-        <v>0.07831728673829351</v>
+        <v>0.08889023139515743</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CZ</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Czechia</t>
-        </is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>2021</v>
       </c>
       <c r="D21">
-        <v>0.1340533284520105</v>
+        <v>0.124633753550572</v>
       </c>
       <c r="E21">
-        <v>0.3074741189391407</v>
-      </c>
-      <c r="F21">
-        <v>0.1139387545664502</v>
+        <v>0.1412514530788913</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
+          <t>Czechia</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>2018</v>
       </c>
       <c r="D22">
-        <v>0.1200346012884427</v>
+        <v>0.04260638636071383</v>
       </c>
       <c r="E22">
-        <v>0.4260080673649851</v>
-      </c>
-      <c r="F22">
-        <v>0.08536006828068077</v>
+        <v>0.3604096548079437</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
+          <t>Czechia</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>2019</v>
       </c>
       <c r="D23">
-        <v>0.1292266099498985</v>
+        <v>0.0466520304427593</v>
       </c>
       <c r="E23">
-        <v>0.4359209254508157</v>
-      </c>
-      <c r="F23">
-        <v>0.09575549670564827</v>
+        <v>0.3790119236158487</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
+          <t>Czechia</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>2020</v>
       </c>
       <c r="D24">
-        <v>0.202456529781724</v>
+        <v>0.07831728673829351</v>
       </c>
       <c r="E24">
-        <v>0.4707382557552766</v>
-      </c>
-      <c r="F24">
-        <v>0.1846642996730935</v>
+        <v>0.3978999384703227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
+          <t>Czechia</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>2021</v>
       </c>
       <c r="D25">
-        <v>0.2524775152226132</v>
+        <v>0.1139387545664502</v>
       </c>
       <c r="E25">
-        <v>0.464586743177389</v>
-      </c>
-      <c r="F25">
-        <v>0.2274707895432237</v>
+        <v>0.3074741189391407</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DK</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>2018</v>
       </c>
       <c r="D26">
-        <v>0.2740123774286141</v>
+        <v>0.08536006828068077</v>
       </c>
       <c r="E26">
-        <v>0.6586818784128782</v>
-      </c>
-      <c r="F26">
-        <v>0.2448730259724906</v>
+        <v>0.4260080673649851</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DK</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>2019</v>
       </c>
       <c r="D27">
-        <v>0.2825511673868623</v>
+        <v>0.09575549670564827</v>
       </c>
       <c r="E27">
-        <v>0.6387761965310703</v>
-      </c>
-      <c r="F27">
-        <v>0.2567629675996729</v>
+        <v>0.4359209254508157</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DK</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>2020</v>
       </c>
       <c r="D28">
-        <v>0.3485768175582991</v>
+        <v>0.1846642996730935</v>
       </c>
       <c r="E28">
-        <v>0.6463821736178117</v>
-      </c>
-      <c r="F28">
-        <v>0.3274294270090156</v>
+        <v>0.4707382557552766</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DK</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>2021</v>
       </c>
       <c r="D29">
-        <v>0.3624202830922383</v>
+        <v>0.2274707895432237</v>
       </c>
       <c r="E29">
-        <v>0.6065590826876374</v>
-      </c>
-      <c r="F29">
-        <v>0.338978581769885</v>
+        <v>0.464586743177389</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EE</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Estonia</t>
-        </is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>2018</v>
       </c>
       <c r="D30">
-        <v>0.1993416992388397</v>
+        <v>0.2448730259724906</v>
       </c>
       <c r="E30">
-        <v>0.5552900188302564</v>
-      </c>
-      <c r="F30">
-        <v>0.1501078852052547</v>
+        <v>0.6586818784128782</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EE</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Estonia</t>
-        </is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>2019</v>
       </c>
       <c r="D31">
-        <v>0.2020031129457941</v>
+        <v>0.2567629675996729</v>
       </c>
       <c r="E31">
-        <v>0.5279715020363746</v>
-      </c>
-      <c r="F31">
-        <v>0.1548459034300619</v>
+        <v>0.6387761965310703</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EE</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Estonia</t>
-        </is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>2020</v>
       </c>
       <c r="D32">
-        <v>0.2366572572703998</v>
+        <v>0.3274294270090156</v>
       </c>
       <c r="E32">
-        <v>0.4910113417736297</v>
-      </c>
-      <c r="F32">
-        <v>0.1967018057573613</v>
+        <v>0.6463821736178117</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EE</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Estonia</t>
-        </is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>2021</v>
       </c>
       <c r="D33">
-        <v>0.2727593010146561</v>
+        <v>0.338978581769885</v>
       </c>
       <c r="E33">
-        <v>0.4879278065430597</v>
-      </c>
-      <c r="F33">
-        <v>0.2315282971592417</v>
+        <v>0.6065590826876374</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>2018</v>
       </c>
       <c r="D34">
-        <v>0.04531159152175062</v>
+        <v>0.1501078852052547</v>
       </c>
       <c r="E34">
-        <v>0.07223300110660122</v>
-      </c>
-      <c r="F34">
-        <v>0.04407568900359619</v>
+        <v>0.5552900188302564</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>2019</v>
       </c>
       <c r="D35">
-        <v>0.04568092523933374</v>
+        <v>0.1548459034300619</v>
       </c>
       <c r="E35">
-        <v>0.07696034344641881</v>
-      </c>
-      <c r="F35">
-        <v>0.0437360275433995</v>
+        <v>0.5279715020363746</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>2020</v>
       </c>
       <c r="D36">
-        <v>0.08858856482726971</v>
+        <v>0.1967018057573613</v>
       </c>
       <c r="E36">
-        <v>0.1027583907038883</v>
-      </c>
-      <c r="F36">
-        <v>0.1085965821954139</v>
+        <v>0.4910113417736297</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>2021</v>
       </c>
       <c r="D37">
-        <v>0.1303418803418804</v>
+        <v>0.2315282971592417</v>
       </c>
       <c r="E37">
-        <v>0.135998478074358</v>
-      </c>
-      <c r="F37">
-        <v>0.1573693939188035</v>
+        <v>0.4879278065430597</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>2018</v>
       </c>
       <c r="D38">
-        <v>0.07819451559845768</v>
+        <v>0.04407568900359619</v>
       </c>
       <c r="E38">
-        <v>0.2803412659653803</v>
-      </c>
-      <c r="F38">
-        <v>0.0357989163571058</v>
+        <v>0.07223300110660122</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>2019</v>
       </c>
       <c r="D39">
-        <v>0.08741788782213239</v>
+        <v>0.0437360275433995</v>
       </c>
       <c r="E39">
-        <v>0.3059979217261155</v>
-      </c>
-      <c r="F39">
-        <v>0.04248560555398922</v>
+        <v>0.07696034344641881</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>2020</v>
       </c>
       <c r="D40">
-        <v>0.1437057531125397</v>
+        <v>0.1085965821954139</v>
       </c>
       <c r="E40">
-        <v>0.3010600409618467</v>
-      </c>
-      <c r="F40">
-        <v>0.1233272042682334</v>
+        <v>0.1027583907038883</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>2021</v>
       </c>
       <c r="D41">
-        <v>0.1395906576186194</v>
+        <v>0.1573693939188035</v>
       </c>
       <c r="E41">
-        <v>0.3233049251038671</v>
-      </c>
-      <c r="F41">
-        <v>0.1226663946709964</v>
+        <v>0.135998478074358</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FI</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>2018</v>
       </c>
       <c r="D42">
-        <v>0.3091201142245226</v>
+        <v>0.0357989163571058</v>
       </c>
       <c r="E42">
-        <v>0.6855320590899242</v>
-      </c>
-      <c r="F42">
-        <v>0.2545935390186998</v>
+        <v>0.2803412659653803</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FI</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>2019</v>
       </c>
       <c r="D43">
-        <v>0.3231554441260745</v>
+        <v>0.04248560555398922</v>
       </c>
       <c r="E43">
-        <v>0.6753606698652349</v>
-      </c>
-      <c r="F43">
-        <v>0.2680654486402352</v>
+        <v>0.3059979217261155</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FI</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>2020</v>
       </c>
       <c r="D44">
-        <v>0.3986667901120267</v>
+        <v>0.1233272042682334</v>
       </c>
       <c r="E44">
-        <v>0.6488783763640846</v>
-      </c>
-      <c r="F44">
-        <v>0.3557265963628503</v>
+        <v>0.3010600409618467</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FI</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>2021</v>
       </c>
       <c r="D45">
-        <v>0.4330208167805498</v>
+        <v>0.1226663946709964</v>
       </c>
       <c r="E45">
-        <v>0.6299429352917696</v>
-      </c>
-      <c r="F45">
-        <v>0.3809581382614174</v>
+        <v>0.3233049251038671</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>2018</v>
       </c>
       <c r="D46">
-        <v>0.1996026563672233</v>
+        <v>0.2545935390186998</v>
       </c>
       <c r="E46">
-        <v>0.5295949126254554</v>
-      </c>
-      <c r="F46">
-        <v>0.1692509444782226</v>
+        <v>0.6855320590899242</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>2019</v>
       </c>
       <c r="D47">
-        <v>0.2171167125133329</v>
+        <v>0.2680654486402352</v>
       </c>
       <c r="E47">
-        <v>0.5688844875570628</v>
-      </c>
-      <c r="F47">
-        <v>0.184529215917581</v>
+        <v>0.6753606698652349</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>2020</v>
       </c>
       <c r="D48">
-        <v>0.2735824462307191</v>
+        <v>0.3557265963628503</v>
       </c>
       <c r="E48">
-        <v>0.5438151406268439</v>
-      </c>
-      <c r="F48">
-        <v>0.2613498211075754</v>
+        <v>0.6488783763640846</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>2021</v>
       </c>
       <c r="D49">
-        <v>0.3375119434358876</v>
+        <v>0.3809581382614174</v>
       </c>
       <c r="E49">
-        <v>0.5969783548155267</v>
-      </c>
-      <c r="F49">
-        <v>0.3087857337417503</v>
+        <v>0.6299429352917696</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>2018</v>
       </c>
       <c r="D50">
-        <v>0.0618042226487524</v>
+        <v>0.1692509444782226</v>
       </c>
       <c r="E50">
-        <v>0.2059002020096574</v>
-      </c>
-      <c r="F50">
-        <v>0.05257619598738237</v>
+        <v>0.5295949126254554</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>2019</v>
       </c>
       <c r="D51">
-        <v>0.06016364511471202</v>
+        <v>0.184529215917581</v>
       </c>
       <c r="E51">
-        <v>0.2095702255188908</v>
-      </c>
-      <c r="F51">
-        <v>0.05393939064617716</v>
+        <v>0.5688844875570628</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>2020</v>
       </c>
       <c r="D52">
-        <v>0.09208573784006595</v>
+        <v>0.2613498211075754</v>
       </c>
       <c r="E52">
-        <v>0.1761310698777193</v>
-      </c>
-      <c r="F52">
-        <v>0.1037012950141558</v>
+        <v>0.5438151406268439</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>2021</v>
       </c>
       <c r="D53">
-        <v>0.1157669931511893</v>
+        <v>0.3087857337417503</v>
       </c>
       <c r="E53">
-        <v>0.2276181689891079</v>
-      </c>
-      <c r="F53">
-        <v>0.1240320856047002</v>
+        <v>0.5969783548155267</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>HU</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>2018</v>
       </c>
       <c r="D54">
-        <v>0.04465999683823031</v>
+        <v>0.05257619598738237</v>
       </c>
       <c r="E54">
-        <v>0.2258385538469727</v>
-      </c>
-      <c r="F54">
-        <v>0.04297391290733592</v>
+        <v>0.2059002020096574</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>HU</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>2019</v>
       </c>
       <c r="D55">
-        <v>0.0300441306266549</v>
+        <v>0.05393939064617716</v>
       </c>
       <c r="E55">
-        <v>0.1407273874545779</v>
-      </c>
-      <c r="F55">
-        <v>0.03574306073035496</v>
+        <v>0.2095702255188908</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HU</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>2020</v>
       </c>
       <c r="D56">
-        <v>0.06840567561237194</v>
+        <v>0.1037012950141558</v>
       </c>
       <c r="E56">
-        <v>0.2168907129335128</v>
-      </c>
-      <c r="F56">
-        <v>0.09712844595114691</v>
+        <v>0.1761310698777193</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HU</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>2021</v>
       </c>
       <c r="D57">
-        <v>0.08960873747246269</v>
+        <v>0.1240320856047002</v>
       </c>
       <c r="E57">
-        <v>0.267177967102699</v>
-      </c>
-      <c r="F57">
-        <v>0.1169216218962944</v>
+        <v>0.2276181689891079</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>IE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>2018</v>
       </c>
       <c r="D58">
-        <v>0.2082425235559197</v>
+        <v>0.04297391290733592</v>
       </c>
       <c r="E58">
-        <v>0.5166665785880317</v>
-      </c>
-      <c r="F58">
-        <v>0.1437104909095731</v>
+        <v>0.2258385538469727</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>IE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>2019</v>
       </c>
       <c r="D59">
-        <v>0.2117793899680162</v>
+        <v>0.03574306073035496</v>
       </c>
       <c r="E59">
-        <v>0.5231596953212023</v>
-      </c>
-      <c r="F59">
-        <v>0.1502026875774628</v>
+        <v>0.1407273874545779</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>IE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>2020</v>
       </c>
       <c r="D60">
-        <v>0.3320192647414322</v>
+        <v>0.09712844595114691</v>
       </c>
       <c r="E60">
-        <v>0.5193249512937719</v>
-      </c>
-      <c r="F60">
-        <v>0.2894020350087306</v>
+        <v>0.2168907129335128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>IE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>2021</v>
       </c>
       <c r="D61">
-        <v>0.4145245559038663</v>
+        <v>0.1169216218962944</v>
       </c>
       <c r="E61">
-        <v>0.5156796573018838</v>
-      </c>
-      <c r="F61">
-        <v>0.3768872843718873</v>
+        <v>0.267177967102699</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>2018</v>
       </c>
       <c r="D62">
-        <v>0.04790541994166295</v>
+        <v>0.1437104909095731</v>
       </c>
       <c r="E62">
-        <v>0.1526827937237795</v>
-      </c>
-      <c r="F62">
-        <v>0.0197179150595333</v>
+        <v>0.5166665785880317</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>2019</v>
       </c>
       <c r="D63">
-        <v>0.04645053496119896</v>
+        <v>0.1502026875774628</v>
       </c>
       <c r="E63">
-        <v>0.158387031259242</v>
-      </c>
-      <c r="F63">
-        <v>0.01681368998709446</v>
+        <v>0.5231596953212023</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>2020</v>
       </c>
       <c r="D64">
-        <v>0.133109298354969</v>
+        <v>0.2894020350087306</v>
       </c>
       <c r="E64">
-        <v>0.1980246650736576</v>
-      </c>
-      <c r="F64">
-        <v>0.1211499719973992</v>
+        <v>0.5193249512937719</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>2021</v>
       </c>
       <c r="D65">
-        <v>0.1452206904992379</v>
+        <v>0.3768872843718873</v>
       </c>
       <c r="E65">
-        <v>0.190109667015335</v>
-      </c>
-      <c r="F65">
-        <v>0.1383930091131808</v>
+        <v>0.5156796573018838</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Lithuania</t>
-        </is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>2018</v>
       </c>
       <c r="D66">
-        <v>0.04324218877003609</v>
+        <v>0.0197179150595333</v>
       </c>
       <c r="E66">
-        <v>0.2435239545950891</v>
-      </c>
-      <c r="F66">
-        <v>0.02246637572538424</v>
+        <v>0.1526827937237795</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Lithuania</t>
-        </is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>2019</v>
       </c>
       <c r="D67">
-        <v>0.04385517593064763</v>
+        <v>0.01681368998709446</v>
       </c>
       <c r="E67">
-        <v>0.2251696968338852</v>
-      </c>
-      <c r="F67">
-        <v>0.0236119041230814</v>
+        <v>0.158387031259242</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Lithuania</t>
-        </is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>2020</v>
       </c>
       <c r="D68">
-        <v>0.07671424139000931</v>
+        <v>0.1211499719973992</v>
       </c>
       <c r="E68">
-        <v>0.2346493182259048</v>
-      </c>
-      <c r="F68">
-        <v>0.06441505001599011</v>
+        <v>0.1980246650736576</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Lithuania</t>
-        </is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>2021</v>
       </c>
       <c r="D69">
-        <v>0.1276027996500438</v>
+        <v>0.1383930091131808</v>
       </c>
       <c r="E69">
-        <v>0.3137049967603792</v>
-      </c>
-      <c r="F69">
-        <v>0.1200865437771684</v>
+        <v>0.190109667015335</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LU</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Luxembourg</t>
-        </is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>2018</v>
       </c>
       <c r="D70">
-        <v>0.2949987087888439</v>
+        <v>0.02246637572538424</v>
       </c>
       <c r="E70">
-        <v>0.6808624528061497</v>
-      </c>
-      <c r="F70">
-        <v>0.2732743462374789</v>
+        <v>0.2435239545950891</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>LU</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Luxembourg</t>
-        </is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>2019</v>
       </c>
       <c r="D71">
-        <v>0.3108385959759142</v>
+        <v>0.0236119041230814</v>
       </c>
       <c r="E71">
-        <v>0.7087430308723992</v>
-      </c>
-      <c r="F71">
-        <v>0.2948689218915628</v>
+        <v>0.2251696968338852</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LU</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Luxembourg</t>
-        </is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>2020</v>
       </c>
       <c r="D72">
-        <v>0.4411168118362964</v>
+        <v>0.06441505001599011</v>
       </c>
       <c r="E72">
-        <v>0.7088957844220053</v>
-      </c>
-      <c r="F72">
-        <v>0.4580959587407585</v>
+        <v>0.2346493182259048</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LU</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Luxembourg</t>
-        </is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>2021</v>
       </c>
       <c r="D73">
-        <v>0.4166585294404843</v>
+        <v>0.1200865437771684</v>
       </c>
       <c r="E73">
-        <v>0.5666648623430047</v>
-      </c>
-      <c r="F73">
-        <v>0.4419928287742054</v>
+        <v>0.3137049967603792</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>LV</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Latvia</t>
-        </is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>2018</v>
       </c>
       <c r="D74">
-        <v>0.04464780920687743</v>
+        <v>0.2732743462374789</v>
       </c>
       <c r="E74">
-        <v>0.254520026868062</v>
-      </c>
-      <c r="F74">
-        <v>0.02358767915632879</v>
+        <v>0.6808624528061497</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>LV</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Latvia</t>
-        </is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>2019</v>
       </c>
       <c r="D75">
-        <v>0.04351087771942986</v>
+        <v>0.2948689218915628</v>
       </c>
       <c r="E75">
-        <v>0.2252974529337</v>
-      </c>
-      <c r="F75">
-        <v>0.02539319580600065</v>
+        <v>0.7087430308723992</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LV</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Latvia</t>
-        </is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>2020</v>
       </c>
       <c r="D76">
-        <v>0.05124521072796935</v>
+        <v>0.4580959587407585</v>
       </c>
       <c r="E76">
-        <v>0.2874005155120503</v>
-      </c>
-      <c r="F76">
-        <v>0.02608188676846412</v>
+        <v>0.7088957844220053</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>LV</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Latvia</t>
-        </is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>2021</v>
       </c>
       <c r="D77">
-        <v>0.1335072326298316</v>
+        <v>0.4419928287742054</v>
       </c>
       <c r="E77">
-        <v>0.2862791430416726</v>
-      </c>
-      <c r="F77">
-        <v>0.1189969223301711</v>
+        <v>0.5666648623430047</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Malta</t>
-        </is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>2018</v>
       </c>
       <c r="D78">
-        <v>0.09240694789081885</v>
+        <v>0.02358767915632879</v>
       </c>
       <c r="E78">
-        <v>0.2144777634441516</v>
-      </c>
-      <c r="F78">
-        <v>0.07867023546099353</v>
+        <v>0.254520026868062</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Malta</t>
-        </is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>2019</v>
       </c>
       <c r="D79">
-        <v>0.1084727468969239</v>
+        <v>0.02539319580600065</v>
       </c>
       <c r="E79">
-        <v>0.2376609137783212</v>
-      </c>
-      <c r="F79">
-        <v>0.09464722830217882</v>
+        <v>0.2252974529337</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Malta</t>
-        </is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>2020</v>
       </c>
       <c r="D80">
-        <v>0.2372828134812644</v>
+        <v>0.02608188676846412</v>
       </c>
       <c r="E80">
-        <v>0.2609382316430082</v>
-      </c>
-      <c r="F80">
-        <v>0.2579410867185163</v>
+        <v>0.2874005155120503</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Malta</t>
-        </is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>2021</v>
       </c>
       <c r="D81">
-        <v>0.2718685055733988</v>
+        <v>0.1189969223301711</v>
       </c>
       <c r="E81">
-        <v>0.2771427612617577</v>
-      </c>
-      <c r="F81">
-        <v>0.2951967901200663</v>
+        <v>0.2862791430416726</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NL</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>2018</v>
       </c>
       <c r="D82">
-        <v>0.3711046964876425</v>
+        <v>0.07867023546099353</v>
       </c>
       <c r="E82">
-        <v>0.6200987714855498</v>
-      </c>
-      <c r="F82">
-        <v>0.3087069391945735</v>
+        <v>0.2144777634441516</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NL</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>2019</v>
       </c>
       <c r="D83">
-        <v>0.3886062838071124</v>
+        <v>0.09464722830217882</v>
       </c>
       <c r="E83">
-        <v>0.6256957652945117</v>
-      </c>
-      <c r="F83">
-        <v>0.3244395986709125</v>
+        <v>0.2376609137783212</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NL</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>2020</v>
       </c>
       <c r="D84">
-        <v>0.4209152188360391</v>
+        <v>0.2579410867185163</v>
       </c>
       <c r="E84">
-        <v>0.6213576563663616</v>
-      </c>
-      <c r="F84">
-        <v>0.3596355983334314</v>
+        <v>0.2609382316430082</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NL</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>2021</v>
       </c>
       <c r="D85">
-        <v>0.4982279051710103</v>
+        <v>0.2951967901200663</v>
       </c>
       <c r="E85">
-        <v>0.7797961428230318</v>
-      </c>
-      <c r="F85">
-        <v>0.4953569409812643</v>
+        <v>0.2771427612617577</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PL</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>2018</v>
       </c>
       <c r="D86">
-        <v>0.1312093023255814</v>
+        <v>0.3087069391945735</v>
       </c>
       <c r="E86">
-        <v>0.3947976305927803</v>
-      </c>
-      <c r="F86">
-        <v>0.07795115593803664</v>
+        <v>0.6200987714855498</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PL</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>2019</v>
       </c>
       <c r="D87">
-        <v>0.1323583630330589</v>
+        <v>0.3244395986709125</v>
       </c>
       <c r="E87">
-        <v>0.4006617087421173</v>
-      </c>
-      <c r="F87">
-        <v>0.08172521333544062</v>
+        <v>0.6256957652945117</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PL</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>2020</v>
       </c>
       <c r="D88">
-        <v>0.1742762970647913</v>
+        <v>0.3596355983334314</v>
       </c>
       <c r="E88">
-        <v>0.375842833327237</v>
-      </c>
-      <c r="F88">
-        <v>0.1335468661753742</v>
+        <v>0.6213576563663616</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PL</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>2021</v>
       </c>
       <c r="D89">
-        <v>0.1523171144225463</v>
+        <v>0.4953569409812643</v>
       </c>
       <c r="E89">
-        <v>0.3272012775198788</v>
-      </c>
-      <c r="F89">
-        <v>0.1135378019333871</v>
+        <v>0.7797961428230318</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>2018</v>
       </c>
       <c r="D90">
-        <v>0.1390148301986135</v>
+        <v>0.07795115593803664</v>
       </c>
       <c r="E90">
-        <v>0.2604964407440981</v>
-      </c>
-      <c r="F90">
-        <v>0.1245572885672074</v>
+        <v>0.3947976305927803</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>2019</v>
       </c>
       <c r="D91">
-        <v>0.1453051499786181</v>
+        <v>0.08172521333544062</v>
       </c>
       <c r="E91">
-        <v>0.2779122168286407</v>
-      </c>
-      <c r="F91">
-        <v>0.1313437817995253</v>
+        <v>0.4006617087421173</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>2020</v>
       </c>
       <c r="D92">
-        <v>0.2009364472106435</v>
+        <v>0.1335468661753742</v>
       </c>
       <c r="E92">
-        <v>0.2706274009062024</v>
-      </c>
-      <c r="F92">
-        <v>0.2147175130506926</v>
+        <v>0.375842833327237</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>2021</v>
       </c>
       <c r="D93">
-        <v>0.2279602239491936</v>
+        <v>0.1135378019333871</v>
       </c>
       <c r="E93">
-        <v>0.3127607737437401</v>
-      </c>
-      <c r="F93">
-        <v>0.2502887956901191</v>
+        <v>0.3272012775198788</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>2018</v>
       </c>
       <c r="D94">
-        <v>0.007404692872309467</v>
+        <v>0.1245572885672074</v>
       </c>
       <c r="E94">
-        <v>0.01145670865955264</v>
-      </c>
-      <c r="F94">
-        <v>0.006892518434753521</v>
+        <v>0.2604964407440981</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>2019</v>
       </c>
       <c r="D95">
-        <v>0.01236713906111603</v>
+        <v>0.1313437817995253</v>
       </c>
       <c r="E95">
-        <v>0.02447965121862697</v>
-      </c>
-      <c r="F95">
-        <v>0.01204301706967793</v>
+        <v>0.2779122168286407</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>2020</v>
       </c>
       <c r="D96">
-        <v>0.02621546571280652</v>
+        <v>0.2147175130506926</v>
       </c>
       <c r="E96">
-        <v>0.02617490052565727</v>
-      </c>
-      <c r="F96">
-        <v>0.03505296481749111</v>
+        <v>0.2706274009062024</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>2021</v>
       </c>
       <c r="D97">
-        <v>0.05613290308332208</v>
+        <v>0.2502887956901191</v>
       </c>
       <c r="E97">
-        <v>0.07655210549145997</v>
-      </c>
-      <c r="F97">
-        <v>0.06672125779383881</v>
+        <v>0.3127607737437401</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>2018</v>
       </c>
       <c r="D98">
-        <v>0.3440690044516015</v>
+        <v>0.006892518434753521</v>
       </c>
       <c r="E98">
-        <v>0.7356434195108472</v>
-      </c>
-      <c r="F98">
-        <v>0.3108372121377182</v>
+        <v>0.01145670865955264</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>2019</v>
       </c>
       <c r="D99">
-        <v>0.3750901659052657</v>
+        <v>0.01204301706967793</v>
       </c>
       <c r="E99">
-        <v>0.7548112553095114</v>
-      </c>
-      <c r="F99">
-        <v>0.3366760066569248</v>
+        <v>0.02447965121862697</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>2020</v>
       </c>
       <c r="D100">
-        <v>0.3402919128233133</v>
+        <v>0.03505296481749111</v>
       </c>
       <c r="E100">
-        <v>0.6576784563841229</v>
-      </c>
-      <c r="F100">
-        <v>0.2993830626857995</v>
+        <v>0.02617490052565727</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>2021</v>
       </c>
       <c r="D101">
-        <v>0.4772738424297934</v>
+        <v>0.06672125779383881</v>
       </c>
       <c r="E101">
-        <v>0.6705777563640856</v>
-      </c>
-      <c r="F101">
-        <v>0.4421853534333589</v>
+        <v>0.07655210549145997</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>2018</v>
       </c>
       <c r="D102">
-        <v>0.1726004580470539</v>
+        <v>0.3108372121377182</v>
       </c>
       <c r="E102">
-        <v>0.4253299109188567</v>
-      </c>
-      <c r="F102">
-        <v>0.1425752133874102</v>
+        <v>0.7356434195108472</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>2019</v>
       </c>
       <c r="D103">
-        <v>0.1756257993787685</v>
+        <v>0.3366760066569248</v>
       </c>
       <c r="E103">
-        <v>0.4320662480155492</v>
-      </c>
-      <c r="F103">
-        <v>0.1424422732920119</v>
+        <v>0.7548112553095114</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>2020</v>
       </c>
       <c r="D104">
-        <v>0.1994095444523338</v>
+        <v>0.2993830626857995</v>
       </c>
       <c r="E104">
-        <v>0.4475381424638287</v>
-      </c>
-      <c r="F104">
-        <v>0.1694183048157279</v>
+        <v>0.6576784563841229</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>2021</v>
       </c>
       <c r="D105">
-        <v>0.230251537852488</v>
+        <v>0.4421853534333589</v>
       </c>
       <c r="E105">
-        <v>0.4259809217945414</v>
-      </c>
-      <c r="F105">
-        <v>0.2012685184606589</v>
+        <v>0.6705777563640856</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>2018</v>
       </c>
       <c r="D106">
-        <v>0.0875103923619492</v>
+        <v>0.1425752133874102</v>
       </c>
       <c r="E106">
-        <v>0.2428419811027105</v>
-      </c>
-      <c r="F106">
-        <v>0.06501495781017808</v>
+        <v>0.4253299109188567</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>2019</v>
       </c>
       <c r="D107">
-        <v>0.0920820796400206</v>
+        <v>0.1424422732920119</v>
       </c>
       <c r="E107">
-        <v>0.2619181421043036</v>
-      </c>
-      <c r="F107">
-        <v>0.0668918475976568</v>
+        <v>0.4320662480155492</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>2020</v>
       </c>
       <c r="D108">
-        <v>0.1141578542313941</v>
+        <v>0.1694183048157279</v>
       </c>
       <c r="E108">
-        <v>0.2528549166663627</v>
-      </c>
-      <c r="F108">
-        <v>0.09329190201501597</v>
+        <v>0.4475381424638287</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>2021</v>
+      </c>
+      <c r="D109">
+        <v>0.2012685184606589</v>
+      </c>
+      <c r="E109">
+        <v>0.4259809217945414</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
           <t>SK</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="D109">
-        <v>0.1497074312463429</v>
-      </c>
-      <c r="E109">
+      <c r="C110">
+        <v>2018</v>
+      </c>
+      <c r="D110">
+        <v>0.06501495781017808</v>
+      </c>
+      <c r="E110">
+        <v>0.2428419811027105</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>2019</v>
+      </c>
+      <c r="D111">
+        <v>0.0668918475976568</v>
+      </c>
+      <c r="E111">
+        <v>0.2619181421043036</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>2020</v>
+      </c>
+      <c r="D112">
+        <v>0.09329190201501597</v>
+      </c>
+      <c r="E112">
+        <v>0.2528549166663627</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>2021</v>
+      </c>
+      <c r="D113">
+        <v>0.1258246395198482</v>
+      </c>
+      <c r="E113">
         <v>0.2979731064266907</v>
-      </c>
-      <c r="F109">
-        <v>0.1258246395198482</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Telework_stapro.xlsx
+++ b/Tables/Telework_stapro.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,10 +443,10 @@
         <v>2020</v>
       </c>
       <c r="D4">
-        <v>0.1823388882702972</v>
+        <v>0.1822373909341302</v>
       </c>
       <c r="E4">
-        <v>0.3616525029225551</v>
+        <v>0.3615637674039005</v>
       </c>
     </row>
     <row r="5">
@@ -464,31 +464,31 @@
         <v>2021</v>
       </c>
       <c r="D5">
-        <v>0.2193472741227216</v>
+        <v>0.2196719549882307</v>
       </c>
       <c r="E5">
-        <v>0.3826519372791757</v>
+        <v>0.3822442355414583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>European Union (27)</t>
         </is>
       </c>
       <c r="C6">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D6">
-        <v>0.1579372363678756</v>
+        <v>0.1999662763108736</v>
       </c>
       <c r="E6">
-        <v>0.6901861689990582</v>
+        <v>0.3850469383218079</v>
       </c>
     </row>
     <row r="7">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C7">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D7">
-        <v>0.1630865973985099</v>
+        <v>0.1579372363678756</v>
       </c>
       <c r="E7">
-        <v>0.6757947768364053</v>
+        <v>0.6901861689990582</v>
       </c>
     </row>
     <row r="8">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D8">
-        <v>0.2475764269895324</v>
+        <v>0.1630865973985099</v>
       </c>
       <c r="E8">
-        <v>0.6496890789547687</v>
+        <v>0.6757947768364053</v>
       </c>
     </row>
     <row r="9">
@@ -545,55 +545,55 @@
         </is>
       </c>
       <c r="C9">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D9">
-        <v>0.2526191767723666</v>
+        <v>0.2475764269895324</v>
       </c>
       <c r="E9">
-        <v>0.5655998940381659</v>
+        <v>0.6496890789547687</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C10">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D10">
-        <v>0.1675985743346316</v>
+        <v>0.2526191767723666</v>
       </c>
       <c r="E10">
-        <v>0.6019718940368509</v>
+        <v>0.5655998940381659</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C11">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D11">
-        <v>0.1886315032983733</v>
+        <v>0.241787225021447</v>
       </c>
       <c r="E11">
-        <v>0.6078654680098237</v>
+        <v>0.5540712775526928</v>
       </c>
     </row>
     <row r="12">
@@ -608,13 +608,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D12">
-        <v>0.2896265748322661</v>
+        <v>0.1675985743346316</v>
       </c>
       <c r="E12">
-        <v>0.6277287722607516</v>
+        <v>0.6019718940368509</v>
       </c>
     </row>
     <row r="13">
@@ -629,76 +629,76 @@
         </is>
       </c>
       <c r="C13">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D13">
-        <v>0.3616446249843524</v>
+        <v>0.1886315032983733</v>
       </c>
       <c r="E13">
-        <v>0.6226016055302072</v>
+        <v>0.6078654680098237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C14">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D14">
-        <v>0.005808725932477496</v>
+        <v>0.2896265748322661</v>
       </c>
       <c r="E14">
-        <v>0.03578241065629512</v>
+        <v>0.6277287722607516</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C15">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D15">
-        <v>0.007438024384112237</v>
+        <v>0.3616446249843524</v>
       </c>
       <c r="E15">
-        <v>0.04080101055267448</v>
+        <v>0.6226016055302072</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C16">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D16">
-        <v>0.02678900020328849</v>
+        <v>0.3013657459122215</v>
       </c>
       <c r="E16">
-        <v>0.06188682335455839</v>
+        <v>0.6447764502078422</v>
       </c>
     </row>
     <row r="17">
@@ -713,2029 +713,2617 @@
         </is>
       </c>
       <c r="C17">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D17">
-        <v>0.0555240433837645</v>
+        <v>0.005808725932477496</v>
       </c>
       <c r="E17">
-        <v>0.1419713427727943</v>
+        <v>0.03578241065629512</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C18">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D18">
-        <v>0.01602778487614279</v>
+        <v>0.007438024384112237</v>
       </c>
       <c r="E18">
-        <v>0.06230670881313322</v>
+        <v>0.04080101055267448</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C19">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D19">
-        <v>0.0200361845801522</v>
+        <v>0.02678900020328849</v>
       </c>
       <c r="E19">
-        <v>0.0672872095177324</v>
+        <v>0.06188682335455839</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C20">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D20">
-        <v>0.07141301558595595</v>
+        <v>0.0555240433837645</v>
       </c>
       <c r="E20">
-        <v>0.08889023139515743</v>
+        <v>0.1419713427727943</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D21">
-        <v>0.124633753550572</v>
+        <v>0.03431446682359134</v>
       </c>
       <c r="E21">
-        <v>0.1412514530788913</v>
+        <v>0.1369081555301499</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C22">
         <v>2018</v>
       </c>
       <c r="D22">
-        <v>0.04260638636071383</v>
+        <v>0.01602778487614279</v>
       </c>
       <c r="E22">
-        <v>0.3604096548079437</v>
+        <v>0.06230670881313322</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C23">
         <v>2019</v>
       </c>
       <c r="D23">
-        <v>0.0466520304427593</v>
+        <v>0.0200361845801522</v>
       </c>
       <c r="E23">
-        <v>0.3790119236158487</v>
+        <v>0.0672872095177324</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C24">
         <v>2020</v>
       </c>
       <c r="D24">
-        <v>0.07831728673829351</v>
+        <v>0.07141301558595595</v>
       </c>
       <c r="E24">
-        <v>0.3978999384703227</v>
+        <v>0.08889023139515743</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C25">
         <v>2021</v>
       </c>
       <c r="D25">
-        <v>0.1139387545664502</v>
+        <v>0.124633753550572</v>
       </c>
       <c r="E25">
-        <v>0.3074741189391407</v>
+        <v>0.1412514530788913</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C26">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D26">
-        <v>0.08536006828068077</v>
+        <v>0.1049764821294652</v>
       </c>
       <c r="E26">
-        <v>0.4260080673649851</v>
+        <v>0.1470607638121569</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C27">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D27">
-        <v>0.09575549670564827</v>
+        <v>0.04260638636071383</v>
       </c>
       <c r="E27">
-        <v>0.4359209254508157</v>
+        <v>0.3604096548079437</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C28">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D28">
-        <v>0.1846642996730935</v>
+        <v>0.0466520304427593</v>
       </c>
       <c r="E28">
-        <v>0.4707382557552766</v>
+        <v>0.3790119236158487</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C29">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D29">
-        <v>0.2274707895432237</v>
+        <v>0.07831728673829351</v>
       </c>
       <c r="E29">
-        <v>0.464586743177389</v>
+        <v>0.3978999384703227</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C30">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D30">
-        <v>0.2448730259724906</v>
+        <v>0.1139387545664502</v>
       </c>
       <c r="E30">
-        <v>0.6586818784128782</v>
+        <v>0.3074741189391407</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C31">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D31">
-        <v>0.2567629675996729</v>
+        <v>0.1041526948875405</v>
       </c>
       <c r="E31">
-        <v>0.6387761965310703</v>
+        <v>0.4427855745171996</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C32">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D32">
-        <v>0.3274294270090156</v>
+        <v>0.08536006828068077</v>
       </c>
       <c r="E32">
-        <v>0.6463821736178117</v>
+        <v>0.4260080673649851</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C33">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D33">
-        <v>0.338978581769885</v>
+        <v>0.09575549670564827</v>
       </c>
       <c r="E33">
-        <v>0.6065590826876374</v>
+        <v>0.4359209254508157</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C34">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D34">
-        <v>0.1501078852052547</v>
+        <v>0.1846642996730935</v>
       </c>
       <c r="E34">
-        <v>0.5552900188302564</v>
+        <v>0.4707382557552766</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C35">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D35">
-        <v>0.1548459034300619</v>
+        <v>0.2289364712892462</v>
       </c>
       <c r="E35">
-        <v>0.5279715020363746</v>
+        <v>0.4599889448935421</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C36">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D36">
-        <v>0.1967018057573613</v>
+        <v>0.2214281070355403</v>
       </c>
       <c r="E36">
-        <v>0.4910113417736297</v>
+        <v>0.4667335285123458</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C37">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D37">
-        <v>0.2315282971592417</v>
+        <v>0.2448730259724906</v>
       </c>
       <c r="E37">
-        <v>0.4879278065430597</v>
+        <v>0.6586818784128782</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C38">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D38">
-        <v>0.04407568900359619</v>
+        <v>0.2567629675996729</v>
       </c>
       <c r="E38">
-        <v>0.07223300110660122</v>
+        <v>0.6387761965310703</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C39">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D39">
-        <v>0.0437360275433995</v>
+        <v>0.3274294270090156</v>
       </c>
       <c r="E39">
-        <v>0.07696034344641881</v>
+        <v>0.6463821736178117</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C40">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D40">
-        <v>0.1085965821954139</v>
+        <v>0.338978581769885</v>
       </c>
       <c r="E40">
-        <v>0.1027583907038883</v>
+        <v>0.6065590826876374</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C41">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D41">
-        <v>0.1573693939188035</v>
+        <v>0.3112314291933186</v>
       </c>
       <c r="E41">
-        <v>0.135998478074358</v>
+        <v>0.6634316489611586</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C42">
         <v>2018</v>
       </c>
       <c r="D42">
-        <v>0.0357989163571058</v>
+        <v>0.1501078852052547</v>
       </c>
       <c r="E42">
-        <v>0.2803412659653803</v>
+        <v>0.5552900188302564</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C43">
         <v>2019</v>
       </c>
       <c r="D43">
-        <v>0.04248560555398922</v>
+        <v>0.1548459034300619</v>
       </c>
       <c r="E43">
-        <v>0.3059979217261155</v>
+        <v>0.5279715020363746</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C44">
         <v>2020</v>
       </c>
       <c r="D44">
-        <v>0.1233272042682334</v>
+        <v>0.1967018057573613</v>
       </c>
       <c r="E44">
-        <v>0.3010600409618467</v>
+        <v>0.4910113417736297</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C45">
         <v>2021</v>
       </c>
       <c r="D45">
-        <v>0.1226663946709964</v>
+        <v>0.2315282971592417</v>
       </c>
       <c r="E45">
-        <v>0.3233049251038671</v>
+        <v>0.4879278065430597</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C46">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D46">
-        <v>0.2545935390186998</v>
+        <v>0.2251147643181916</v>
       </c>
       <c r="E46">
-        <v>0.6855320590899242</v>
+        <v>0.4502558489399409</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C47">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D47">
-        <v>0.2680654486402352</v>
+        <v>0.04407568900359619</v>
       </c>
       <c r="E47">
-        <v>0.6753606698652349</v>
+        <v>0.07223300110660122</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C48">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D48">
-        <v>0.3557265963628503</v>
+        <v>0.0437360275433995</v>
       </c>
       <c r="E48">
-        <v>0.6488783763640846</v>
+        <v>0.07696034344641881</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C49">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D49">
-        <v>0.3809581382614174</v>
+        <v>0.1085965821954139</v>
       </c>
       <c r="E49">
-        <v>0.6299429352917696</v>
+        <v>0.1027583907038883</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C50">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D50">
-        <v>0.1692509444782226</v>
+        <v>0.1573693939188035</v>
       </c>
       <c r="E50">
-        <v>0.5295949126254554</v>
+        <v>0.135998478074358</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C51">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D51">
-        <v>0.184529215917581</v>
+        <v>0.08918964510239807</v>
       </c>
       <c r="E51">
-        <v>0.5688844875570628</v>
+        <v>0.1276268081524126</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C52">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D52">
-        <v>0.2613498211075754</v>
+        <v>0.0357989163571058</v>
       </c>
       <c r="E52">
-        <v>0.5438151406268439</v>
+        <v>0.2803412659653803</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C53">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D53">
-        <v>0.3087857337417503</v>
+        <v>0.04248560555398922</v>
       </c>
       <c r="E53">
-        <v>0.5969783548155267</v>
+        <v>0.3059979217261155</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C54">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D54">
-        <v>0.05257619598738237</v>
+        <v>0.1233272042682334</v>
       </c>
       <c r="E54">
-        <v>0.2059002020096574</v>
+        <v>0.3010600409618467</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C55">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D55">
-        <v>0.05393939064617716</v>
+        <v>0.1226663946709964</v>
       </c>
       <c r="E55">
-        <v>0.2095702255188908</v>
+        <v>0.3233049251038671</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C56">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D56">
-        <v>0.1037012950141558</v>
+        <v>0.1059912990096163</v>
       </c>
       <c r="E56">
-        <v>0.1761310698777193</v>
+        <v>0.3228257592693651</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C57">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D57">
-        <v>0.1240320856047002</v>
+        <v>0.2545935390186998</v>
       </c>
       <c r="E57">
-        <v>0.2276181689891079</v>
+        <v>0.6855320590899242</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C58">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D58">
-        <v>0.04297391290733592</v>
+        <v>0.2680654486402352</v>
       </c>
       <c r="E58">
-        <v>0.2258385538469727</v>
+        <v>0.6753606698652349</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C59">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D59">
-        <v>0.03574306073035496</v>
+        <v>0.3557265963628503</v>
       </c>
       <c r="E59">
-        <v>0.1407273874545779</v>
+        <v>0.6488783763640846</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C60">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D60">
-        <v>0.09712844595114691</v>
+        <v>0.3809581382614174</v>
       </c>
       <c r="E60">
-        <v>0.2168907129335128</v>
+        <v>0.6299429352917696</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C61">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D61">
-        <v>0.1169216218962944</v>
+        <v>0.3728755555820998</v>
       </c>
       <c r="E61">
-        <v>0.267177967102699</v>
+        <v>0.620000333590415</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C62">
         <v>2018</v>
       </c>
       <c r="D62">
-        <v>0.1437104909095731</v>
+        <v>0.1692509444782226</v>
       </c>
       <c r="E62">
-        <v>0.5166665785880317</v>
+        <v>0.5295949126254554</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C63">
         <v>2019</v>
       </c>
       <c r="D63">
-        <v>0.1502026875774628</v>
+        <v>0.184529215917581</v>
       </c>
       <c r="E63">
-        <v>0.5231596953212023</v>
+        <v>0.5688844875570628</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C64">
         <v>2020</v>
       </c>
       <c r="D64">
-        <v>0.2894020350087306</v>
+        <v>0.2613498211075754</v>
       </c>
       <c r="E64">
-        <v>0.5193249512937719</v>
+        <v>0.5438151406268439</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C65">
         <v>2021</v>
       </c>
       <c r="D65">
-        <v>0.3768872843718873</v>
+        <v>0.308785806943196</v>
       </c>
       <c r="E65">
-        <v>0.5156796573018838</v>
+        <v>0.5969784539390813</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C66">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D66">
-        <v>0.0197179150595333</v>
+        <v>0.2999338762553846</v>
       </c>
       <c r="E66">
-        <v>0.1526827937237795</v>
+        <v>0.609755527602253</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C67">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D67">
-        <v>0.01681368998709446</v>
+        <v>0.05257619598738237</v>
       </c>
       <c r="E67">
-        <v>0.158387031259242</v>
+        <v>0.2059002020096574</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C68">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D68">
-        <v>0.1211499719973992</v>
+        <v>0.05393939064617716</v>
       </c>
       <c r="E68">
-        <v>0.1980246650736576</v>
+        <v>0.2095702255188908</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C69">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D69">
-        <v>0.1383930091131808</v>
+        <v>0.1037012950141558</v>
       </c>
       <c r="E69">
-        <v>0.190109667015335</v>
+        <v>0.1761310698777193</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C70">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D70">
-        <v>0.02246637572538424</v>
+        <v>0.1240320856047002</v>
       </c>
       <c r="E70">
-        <v>0.2435239545950891</v>
+        <v>0.2276181689891079</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C71">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D71">
-        <v>0.0236119041230814</v>
+        <v>0.1054794039905017</v>
       </c>
       <c r="E71">
-        <v>0.2251696968338852</v>
+        <v>0.2372086429847461</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C72">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D72">
-        <v>0.06441505001599011</v>
+        <v>0.04297391290733592</v>
       </c>
       <c r="E72">
-        <v>0.2346493182259048</v>
+        <v>0.2258385538469727</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C73">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D73">
-        <v>0.1200865437771684</v>
+        <v>0.03574306073035496</v>
       </c>
       <c r="E73">
-        <v>0.3137049967603792</v>
+        <v>0.1407273874545779</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C74">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D74">
-        <v>0.2732743462374789</v>
+        <v>0.09712844595114691</v>
       </c>
       <c r="E74">
-        <v>0.6808624528061497</v>
+        <v>0.2168907129335128</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C75">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D75">
-        <v>0.2948689218915628</v>
+        <v>0.1169216218962944</v>
       </c>
       <c r="E75">
-        <v>0.7087430308723992</v>
+        <v>0.267177967102699</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C76">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D76">
-        <v>0.4580959587407585</v>
+        <v>0.08993966391142665</v>
       </c>
       <c r="E76">
-        <v>0.7088957844220053</v>
+        <v>0.2356098695945513</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="C77">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D77">
-        <v>0.4419928287742054</v>
+        <v>0.1437104909095731</v>
       </c>
       <c r="E77">
-        <v>0.5666648623430047</v>
+        <v>0.5166665785880317</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="C78">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D78">
-        <v>0.02358767915632879</v>
+        <v>0.1502026875774628</v>
       </c>
       <c r="E78">
-        <v>0.254520026868062</v>
+        <v>0.5231596953212023</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="C79">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D79">
-        <v>0.02539319580600065</v>
+        <v>0.2894020350087306</v>
       </c>
       <c r="E79">
-        <v>0.2252974529337</v>
+        <v>0.5193249512937719</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="C80">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D80">
-        <v>0.02608188676846412</v>
+        <v>0.3768872843718873</v>
       </c>
       <c r="E80">
-        <v>0.2874005155120503</v>
+        <v>0.5156796573018838</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="C81">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D81">
-        <v>0.1189969223301711</v>
+        <v>0.3360684798211405</v>
       </c>
       <c r="E81">
-        <v>0.2862791430416726</v>
+        <v>0.5412358294711274</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C82">
         <v>2018</v>
       </c>
       <c r="D82">
-        <v>0.07867023546099353</v>
+        <v>0.0197179150595333</v>
       </c>
       <c r="E82">
-        <v>0.2144777634441516</v>
+        <v>0.1526827937237795</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C83">
         <v>2019</v>
       </c>
       <c r="D83">
-        <v>0.09464722830217882</v>
+        <v>0.01681368998709446</v>
       </c>
       <c r="E83">
-        <v>0.2376609137783212</v>
+        <v>0.158387031259242</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C84">
         <v>2020</v>
       </c>
       <c r="D84">
-        <v>0.2579410867185163</v>
+        <v>0.1211499719973992</v>
       </c>
       <c r="E84">
-        <v>0.2609382316430082</v>
+        <v>0.1980246650736576</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C85">
         <v>2021</v>
       </c>
       <c r="D85">
-        <v>0.2951967901200663</v>
+        <v>0.1383930091131808</v>
       </c>
       <c r="E85">
-        <v>0.2771427612617577</v>
+        <v>0.190109667015335</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C86">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D86">
-        <v>0.3087069391945735</v>
+        <v>0.1073194457968002</v>
       </c>
       <c r="E86">
-        <v>0.6200987714855498</v>
+        <v>0.1807793990486926</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C87">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D87">
-        <v>0.3244395986709125</v>
+        <v>0.02246637572538424</v>
       </c>
       <c r="E87">
-        <v>0.6256957652945117</v>
+        <v>0.2435239545950891</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C88">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D88">
-        <v>0.3596355983334314</v>
+        <v>0.0236119041230814</v>
       </c>
       <c r="E88">
-        <v>0.6213576563663616</v>
+        <v>0.2251696968338852</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C89">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D89">
-        <v>0.4953569409812643</v>
+        <v>0.06441505001599011</v>
       </c>
       <c r="E89">
-        <v>0.7797961428230318</v>
+        <v>0.2346493182259048</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C90">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D90">
-        <v>0.07795115593803664</v>
+        <v>0.1200865437771684</v>
       </c>
       <c r="E90">
-        <v>0.3947976305927803</v>
+        <v>0.3137049967603792</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C91">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D91">
-        <v>0.08172521333544062</v>
+        <v>0.09469579821990155</v>
       </c>
       <c r="E91">
-        <v>0.4006617087421173</v>
+        <v>0.2492546048753737</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C92">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D92">
-        <v>0.1335468661753742</v>
+        <v>0.2732743462374789</v>
       </c>
       <c r="E92">
-        <v>0.375842833327237</v>
+        <v>0.6808624528061497</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C93">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D93">
-        <v>0.1135378019333871</v>
+        <v>0.2948689218915628</v>
       </c>
       <c r="E93">
-        <v>0.3272012775198788</v>
+        <v>0.7087430308723992</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C94">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D94">
-        <v>0.1245572885672074</v>
+        <v>0.4580959587407585</v>
       </c>
       <c r="E94">
-        <v>0.2604964407440981</v>
+        <v>0.7088957844220053</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C95">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D95">
-        <v>0.1313437817995253</v>
+        <v>0.4419928287742054</v>
       </c>
       <c r="E95">
-        <v>0.2779122168286407</v>
+        <v>0.5666648623430047</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C96">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D96">
-        <v>0.2147175130506926</v>
+        <v>0.3940764281830323</v>
       </c>
       <c r="E96">
-        <v>0.2706274009062024</v>
+        <v>0.4835397502204354</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C97">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D97">
-        <v>0.2502887956901191</v>
+        <v>0.02358767915632879</v>
       </c>
       <c r="E97">
-        <v>0.3127607737437401</v>
+        <v>0.254520026868062</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C98">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D98">
-        <v>0.006892518434753521</v>
+        <v>0.02539319580600065</v>
       </c>
       <c r="E98">
-        <v>0.01145670865955264</v>
+        <v>0.2252974529337</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C99">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D99">
-        <v>0.01204301706967793</v>
+        <v>0.02608188676846412</v>
       </c>
       <c r="E99">
-        <v>0.02447965121862697</v>
+        <v>0.2874005155120503</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C100">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D100">
-        <v>0.03505296481749111</v>
+        <v>0.1189969223301711</v>
       </c>
       <c r="E100">
-        <v>0.02617490052565727</v>
+        <v>0.2862791430416726</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C101">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D101">
-        <v>0.06672125779383881</v>
+        <v>0.09304993113864514</v>
       </c>
       <c r="E101">
-        <v>0.07655210549145997</v>
+        <v>0.2816241592248525</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C102">
         <v>2018</v>
       </c>
       <c r="D102">
-        <v>0.3108372121377182</v>
+        <v>0.07867023546099353</v>
       </c>
       <c r="E102">
-        <v>0.7356434195108472</v>
+        <v>0.2144777634441516</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C103">
         <v>2019</v>
       </c>
       <c r="D103">
-        <v>0.3366760066569248</v>
+        <v>0.09464722830217882</v>
       </c>
       <c r="E103">
-        <v>0.7548112553095114</v>
+        <v>0.2376609137783212</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C104">
         <v>2020</v>
       </c>
       <c r="D104">
-        <v>0.2993830626857995</v>
+        <v>0.2579410867185163</v>
       </c>
       <c r="E104">
-        <v>0.6576784563841229</v>
+        <v>0.2609382316430082</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C105">
         <v>2021</v>
       </c>
       <c r="D105">
-        <v>0.4421853534333589</v>
+        <v>0.2951967901200663</v>
       </c>
       <c r="E105">
-        <v>0.6705777563640856</v>
+        <v>0.2771427612617577</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C106">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D106">
-        <v>0.1425752133874102</v>
+        <v>0.2807601780470676</v>
       </c>
       <c r="E106">
-        <v>0.4253299109188567</v>
+        <v>0.2836275372755684</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C107">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D107">
-        <v>0.1424422732920119</v>
+        <v>0.3087069391945735</v>
       </c>
       <c r="E107">
-        <v>0.4320662480155492</v>
+        <v>0.6200987714855498</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C108">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D108">
-        <v>0.1694183048157279</v>
+        <v>0.3244395986709125</v>
       </c>
       <c r="E108">
-        <v>0.4475381424638287</v>
+        <v>0.6256957652945117</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C109">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D109">
-        <v>0.2012685184606589</v>
+        <v>0.3596355983334314</v>
       </c>
       <c r="E109">
-        <v>0.4259809217945414</v>
+        <v>0.6213576563663616</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C110">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D110">
-        <v>0.06501495781017808</v>
+        <v>0.4953569410080777</v>
       </c>
       <c r="E110">
-        <v>0.2428419811027105</v>
+        <v>0.7797961428367797</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C111">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D111">
-        <v>0.0668918475976568</v>
+        <v>0.4852446393023126</v>
       </c>
       <c r="E111">
-        <v>0.2619181421043036</v>
+        <v>0.769834127377428</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C112">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D112">
-        <v>0.09329190201501597</v>
+        <v>0.07795115593803664</v>
       </c>
       <c r="E112">
-        <v>0.2528549166663627</v>
+        <v>0.3947976305927803</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>2019</v>
+      </c>
+      <c r="D113">
+        <v>0.08172521333544062</v>
+      </c>
+      <c r="E113">
+        <v>0.4006617087421173</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>2020</v>
+      </c>
+      <c r="D114">
+        <v>0.1335468661753742</v>
+      </c>
+      <c r="E114">
+        <v>0.375842833327237</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>2021</v>
+      </c>
+      <c r="D115">
+        <v>0.1135378019333871</v>
+      </c>
+      <c r="E115">
+        <v>0.3272012775198788</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>2022</v>
+      </c>
+      <c r="D116">
+        <v>0.08683416047774162</v>
+      </c>
+      <c r="E116">
+        <v>0.2960048228607547</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>2018</v>
+      </c>
+      <c r="D117">
+        <v>0.1245572885672074</v>
+      </c>
+      <c r="E117">
+        <v>0.2604964407440981</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>2019</v>
+      </c>
+      <c r="D118">
+        <v>0.1313437817995253</v>
+      </c>
+      <c r="E118">
+        <v>0.2779122168286407</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>2020</v>
+      </c>
+      <c r="D119">
+        <v>0.210560321512313</v>
+      </c>
+      <c r="E119">
+        <v>0.2671857309712984</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>2021</v>
+      </c>
+      <c r="D120">
+        <v>0.2502887956901191</v>
+      </c>
+      <c r="E120">
+        <v>0.3127607737437401</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>2022</v>
+      </c>
+      <c r="D121">
+        <v>0.1664039214281838</v>
+      </c>
+      <c r="E121">
+        <v>0.2792444484343956</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>2018</v>
+      </c>
+      <c r="D122">
+        <v>0.006892518434753521</v>
+      </c>
+      <c r="E122">
+        <v>0.01145670865955264</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>2019</v>
+      </c>
+      <c r="D123">
+        <v>0.01204301706967793</v>
+      </c>
+      <c r="E123">
+        <v>0.02447965121862697</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>2020</v>
+      </c>
+      <c r="D124">
+        <v>0.03505296481749111</v>
+      </c>
+      <c r="E124">
+        <v>0.02617490052565727</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>2021</v>
+      </c>
+      <c r="D125">
+        <v>0.06672125779383881</v>
+      </c>
+      <c r="E125">
+        <v>0.07655210549145997</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>2022</v>
+      </c>
+      <c r="D126">
+        <v>0.0413618998638391</v>
+      </c>
+      <c r="E126">
+        <v>0.06473466858339322</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>2018</v>
+      </c>
+      <c r="D127">
+        <v>0.3108372121377182</v>
+      </c>
+      <c r="E127">
+        <v>0.7356434195108472</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>2019</v>
+      </c>
+      <c r="D128">
+        <v>0.3366760066569248</v>
+      </c>
+      <c r="E128">
+        <v>0.7548112553095114</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>2020</v>
+      </c>
+      <c r="D129">
+        <v>0.2993830626857995</v>
+      </c>
+      <c r="E129">
+        <v>0.6576784563841229</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>2021</v>
+      </c>
+      <c r="D130">
+        <v>0.4421853534333589</v>
+      </c>
+      <c r="E130">
+        <v>0.6705777563640856</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>2022</v>
+      </c>
+      <c r="D131">
+        <v>0.4236928760142934</v>
+      </c>
+      <c r="E131">
+        <v>0.6841748199792038</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>2018</v>
+      </c>
+      <c r="D132">
+        <v>0.1425752133874102</v>
+      </c>
+      <c r="E132">
+        <v>0.4253299109188567</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>2019</v>
+      </c>
+      <c r="D133">
+        <v>0.1424422732920119</v>
+      </c>
+      <c r="E133">
+        <v>0.4320662480155492</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>2020</v>
+      </c>
+      <c r="D134">
+        <v>0.1694183048157279</v>
+      </c>
+      <c r="E134">
+        <v>0.4475381424638287</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>2021</v>
+      </c>
+      <c r="D135">
+        <v>0.2012685184606589</v>
+      </c>
+      <c r="E135">
+        <v>0.4259809217945414</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C136">
+        <v>2022</v>
+      </c>
+      <c r="D136">
+        <v>0.1918438541897632</v>
+      </c>
+      <c r="E136">
+        <v>0.4513384480886166</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
           <t>SK</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="C113">
+      <c r="C137">
+        <v>2018</v>
+      </c>
+      <c r="D137">
+        <v>0.06501495781017808</v>
+      </c>
+      <c r="E137">
+        <v>0.2428419811027105</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="C138">
+        <v>2019</v>
+      </c>
+      <c r="D138">
+        <v>0.0668918475976568</v>
+      </c>
+      <c r="E138">
+        <v>0.2619181421043036</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="C139">
+        <v>2020</v>
+      </c>
+      <c r="D139">
+        <v>0.09329190201501597</v>
+      </c>
+      <c r="E139">
+        <v>0.2528549166663627</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="C140">
         <v>2021</v>
       </c>
-      <c r="D113">
+      <c r="D140">
         <v>0.1258246395198482</v>
       </c>
-      <c r="E113">
+      <c r="E140">
         <v>0.2979731064266907</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="C141">
+        <v>2022</v>
+      </c>
+      <c r="D141">
+        <v>0.1006115609360643</v>
+      </c>
+      <c r="E141">
+        <v>0.3125835540547886</v>
       </c>
     </row>
   </sheetData>
